--- a/data/trans_bre/P32C-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Habitat-trans_bre.xlsx
@@ -660,21 +660,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.768625119296928</v>
+        <v>-1.808438060882691</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.978809464495466</v>
+        <v>-2.109780351570846</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.770503181942762</v>
+        <v>-3.930289494786089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.959623138800207</v>
+        <v>-0.9017242091003876</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
-      <c r="H5" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -686,23 +684,19 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2042640188578226</v>
+        <v>-0.2056250264439835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.237685030718309</v>
+        <v>1.146338090893465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.7406785715843472</v>
+        <v>-0.7924579772572357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.855239335518082</v>
+        <v>1.844668195799372</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -727,7 +721,7 @@
         <v>-1.199090646352299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1032912559252806</v>
+        <v>0.1032912559252802</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-1</v>
@@ -739,7 +733,7 @@
         <v>-0.773621656710254</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.07007932928551591</v>
+        <v>0.07007932928551565</v>
       </c>
     </row>
     <row r="8">
@@ -750,16 +744,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.011192941242301</v>
+        <v>-2.940651074626242</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.669830142004988</v>
+        <v>-2.631179003184779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.549920994217916</v>
+        <v>-2.667573755400789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.373827949942963</v>
+        <v>-1.420898141566318</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -767,7 +761,7 @@
         <v>-1</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7886234386857286</v>
+        <v>-0.8075301904625882</v>
       </c>
     </row>
     <row r="9">
@@ -778,24 +772,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.6778619791755744</v>
+        <v>-0.6945999684349153</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.6613955031911118</v>
+        <v>-0.6770803074303056</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.121658080353163</v>
+        <v>-0.07480085783125029</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.613682661675867</v>
+        <v>2.998155307382447</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>2.011552710904042</v>
+        <v>0.8765082001728168</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.208390726116288</v>
+        <v>3.535692865760035</v>
       </c>
     </row>
     <row r="10">
@@ -819,7 +813,7 @@
         <v>-1.9411276617023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.466479601762341</v>
+        <v>0.4664796017623411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-1</v>
@@ -831,7 +825,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.7297275595669036</v>
+        <v>0.7297275595669038</v>
       </c>
     </row>
     <row r="11">
@@ -842,16 +836,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.912571393535766</v>
+        <v>-5.846280144702289</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.172748062886178</v>
+        <v>-4.140866594792858</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.053722130620684</v>
+        <v>-3.614523650254374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9489662633173082</v>
+        <v>-0.9951251210655442</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -866,16 +860,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.7155366986755</v>
+        <v>-1.680340036230781</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.170549153937484</v>
+        <v>-1.091035806955583</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.9095154465151911</v>
+        <v>-0.9141645276307857</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.373275121230614</v>
+        <v>4.399590671330136</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -903,7 +897,7 @@
         <v>0.03848068581038793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.19453887579381</v>
+        <v>-0.1945388757938099</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1292864293252705</v>
@@ -915,7 +909,7 @@
         <v>0.03132530620153639</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1166890920404348</v>
+        <v>-0.1166890920404347</v>
       </c>
     </row>
     <row r="14">
@@ -926,28 +920,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.796322141118828</v>
+        <v>-1.887772961150274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.381799655608734</v>
+        <v>-4.27964509487761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.278022575041316</v>
+        <v>-1.299456244139141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.659765778842267</v>
+        <v>-1.730789884087434</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6188276257393825</v>
+        <v>-0.6558703787829964</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7419357618149441</v>
+        <v>-0.7686579802385238</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7839469357164676</v>
+        <v>-0.8236931542605993</v>
       </c>
     </row>
     <row r="15">
@@ -958,28 +952,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.870065901343474</v>
+        <v>3.006393328732344</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.9150309654005548</v>
+        <v>-0.8345246693744528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.697277535886093</v>
+        <v>1.778339704669343</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.544367906051892</v>
+        <v>2.340954127565872</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.856310871734249</v>
+        <v>1.951178961985032</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1432189651488624</v>
+        <v>-0.2130753929838314</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.111678841885564</v>
+        <v>3.396270688312748</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.44893524612062</v>
+        <v>3.010031078213241</v>
       </c>
     </row>
     <row r="16">
@@ -1003,7 +997,7 @@
         <v>-1.063866621851007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09807643616023751</v>
+        <v>0.09807643616023767</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5125030028333734</v>
@@ -1015,7 +1009,7 @@
         <v>-0.6594331129681192</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.08289009480301207</v>
+        <v>0.08289009480301224</v>
       </c>
     </row>
     <row r="17">
@@ -1026,28 +1020,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.750585886683936</v>
+        <v>-1.733869069517858</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.469220265593059</v>
+        <v>-2.509912536572148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.766353191845053</v>
+        <v>-1.878646759538111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7236274875987712</v>
+        <v>-0.7535129974482381</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8139889596664097</v>
+        <v>-0.8038372109913711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.9573457185972294</v>
+        <v>-0.9592052328968736</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8833777317657997</v>
+        <v>-0.9032478840835232</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5334552663299705</v>
+        <v>-0.5451130344055698</v>
       </c>
     </row>
     <row r="18">
@@ -1058,28 +1052,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1399564633787552</v>
+        <v>0.1021196582867812</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.9618199708187811</v>
+        <v>-1.034847960112007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.4050634124900465</v>
+        <v>-0.334112517630875</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.411267927257998</v>
+        <v>1.203976476762935</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1515639717510883</v>
+        <v>0.09945184461141389</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.535100271467829</v>
+        <v>-0.4983020677356305</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.2154965001739956</v>
+        <v>-0.2295628204016172</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.522805554812262</v>
+        <v>1.424338016941796</v>
       </c>
     </row>
     <row r="19">
